--- a/doc/test/Scendo_UAT_Testbook.xlsx
+++ b/doc/test/Scendo_UAT_Testbook.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t xml:space="preserve">Scendo</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t xml:space="preserve">- L'utente riceve un messaggio di errore che gli indica la presenza di un altro account nel sistema con la stessa email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica Registrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- L'utente clicca sul link presente nell'email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- L'utente visualizza un messaggio che conferma l'avvenuta attivazione del suo account</t>
   </si>
   <si>
     <t xml:space="preserve">Login utente</t>
@@ -1076,7 +1085,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1327,10 +1336,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1417,9 +1426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2095200</xdr:colOff>
+      <xdr:colOff>2094840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1427,8 +1436,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11009160" y="933120"/>
-        <a:ext cx="2034360" cy="1647360"/>
+        <a:off x="11005560" y="933120"/>
+        <a:ext cx="2034000" cy="1647000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1452,19 +1461,19 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="3.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="9.28"/>
   </cols>
   <sheetData>
@@ -1515,7 +1524,7 @@
       </c>
       <c r="J6" s="19" t="n">
         <f aca="false">(J8+J11+J10)/SUM(J7:J11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="17"/>
     </row>
@@ -1535,7 +1544,7 @@
       </c>
       <c r="J7" s="24" t="n">
         <f aca="false">COUNTIF('Test Scenarios'!$D:$F,I7)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L7" s="17"/>
     </row>
@@ -1553,7 +1562,7 @@
       </c>
       <c r="J8" s="24" t="n">
         <f aca="false">COUNTIF('Test Scenarios'!$D:$F,I8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" s="17"/>
     </row>
@@ -1630,7 +1639,9 @@
       <c r="C14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="n">
+        <v>44750</v>
+      </c>
       <c r="E14" s="28"/>
       <c r="F14" s="17"/>
       <c r="H14" s="13"/>
@@ -1688,13 +1699,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56"/>
@@ -1764,7 +1775,7 @@
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>26</v>
@@ -1785,7 +1796,7 @@
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>26</v>
@@ -1797,9 +1808,9 @@
       <c r="H5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>31</v>
@@ -1811,22 +1822,22 @@
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="43"/>
@@ -1834,10 +1845,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36"/>
@@ -1846,162 +1857,197 @@
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="52.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="46"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B11" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="41" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="B12" s="46" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>44</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43"/>
       <c r="M12" s="44"/>
     </row>
-    <row r="13" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B14" s="46" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>50</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
       <c r="M14" s="44"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="35" t="s">
+    <row r="15" customFormat="false" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="B16" s="46" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>26</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
       <c r="M16" s="44"/>
     </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="M18" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2018,6 +2064,8 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <conditionalFormatting sqref="B2 D2:F2">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
@@ -2041,7 +2089,7 @@
       <formula>"""OK"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5 D7 D10 D12">
+  <conditionalFormatting sqref="D5 D9 D12 D14">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"Error"</formula>
     </cfRule>
@@ -2053,7 +2101,7 @@
       <formula>"Retested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"Error"</formula>
     </cfRule>
@@ -2065,7 +2113,7 @@
       <formula>"Retested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"Error"</formula>
     </cfRule>
@@ -2077,7 +2125,7 @@
       <formula>"Retested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D4 D7">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>"Error"</formula>
     </cfRule>
@@ -2089,7 +2137,7 @@
       <formula>"Retested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D11">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>"Error"</formula>
     </cfRule>
@@ -2101,7 +2149,7 @@
       <formula>"Retested"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D18">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>"Error"</formula>
     </cfRule>
@@ -2114,7 +2162,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5 D7 D9:D10 D12:D14 D16" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5 D7 D9 D11:D12 D14:D16 D18" type="list">
       <formula1>"Open,Passed,Error,Skipped,Retested"</formula1>
       <formula2>0</formula2>
     </dataValidation>
